--- a/data/output/FV2504_FV2410/PRICAT/27001.xlsx
+++ b/data/output/FV2504_FV2410/PRICAT/27001.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="211">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="211">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -800,6 +800,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U82" totalsRowShown="0">
+  <autoFilter ref="A1:U82"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1089,7 +1119,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4944,5 +4977,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/PRICAT/27001.xlsx
+++ b/data/output/FV2504_FV2410/PRICAT/27001.xlsx
@@ -1024,7 +1024,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1047,6 +1047,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1055,6 +1058,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1499,7 +1505,7 @@
         <v>192</v>
       </c>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1865,7 +1871,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2011,7 +2017,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2211,7 +2217,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2413,7 +2419,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -2619,7 +2625,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -2939,7 +2945,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -3239,52 +3245,52 @@
       <c r="V35" s="5"/>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E36" s="5"/>
+      <c r="E36" s="2"/>
       <c r="F36" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5" t="s">
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="K36" s="5"/>
+      <c r="K36" s="2"/>
       <c r="L36" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="M36" s="5" t="s">
+      <c r="M36" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N36" s="5" t="s">
+      <c r="N36" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="O36" s="5" t="s">
+      <c r="O36" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P36" s="5"/>
+      <c r="P36" s="2"/>
       <c r="Q36" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5" t="s">
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="V36" s="5"/>
+      <c r="V36" s="2"/>
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="5" t="s">
@@ -3423,7 +3429,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -3611,24 +3617,24 @@
       <c r="B43" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8" t="s">
+      <c r="E43" s="9"/>
+      <c r="F43" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8" t="s">
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="K43" s="8"/>
-      <c r="L43" s="9" t="s">
+      <c r="K43" s="9"/>
+      <c r="L43" s="10" t="s">
         <v>203</v>
       </c>
       <c r="M43" s="5"/>
@@ -3646,33 +3652,33 @@
       <c r="A44" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8" t="s">
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="J44" s="8" t="s">
+      <c r="J44" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="K44" s="8" t="s">
+      <c r="K44" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="L44" s="9" t="s">
+      <c r="L44" s="10" t="s">
         <v>203</v>
       </c>
       <c r="M44" s="5"/>
@@ -3690,33 +3696,33 @@
       <c r="A45" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="G45" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8" t="s">
+      <c r="H45" s="9"/>
+      <c r="I45" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="J45" s="8" t="s">
+      <c r="J45" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="K45" s="8"/>
-      <c r="L45" s="9" t="s">
+      <c r="K45" s="9"/>
+      <c r="L45" s="10" t="s">
         <v>203</v>
       </c>
       <c r="M45" s="5"/>
@@ -3734,31 +3740,31 @@
       <c r="A46" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8" t="s">
+      <c r="F46" s="9"/>
+      <c r="G46" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8" t="s">
+      <c r="H46" s="9"/>
+      <c r="I46" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="J46" s="8" t="s">
+      <c r="J46" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="K46" s="8"/>
-      <c r="L46" s="9" t="s">
+      <c r="K46" s="9"/>
+      <c r="L46" s="10" t="s">
         <v>203</v>
       </c>
       <c r="M46" s="5"/>
@@ -3776,31 +3782,31 @@
       <c r="A47" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8" t="s">
+      <c r="F47" s="9"/>
+      <c r="G47" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8" t="s">
+      <c r="H47" s="9"/>
+      <c r="I47" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="J47" s="8" t="s">
+      <c r="J47" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="K47" s="8"/>
-      <c r="L47" s="9" t="s">
+      <c r="K47" s="9"/>
+      <c r="L47" s="10" t="s">
         <v>203</v>
       </c>
       <c r="M47" s="5"/>
@@ -3818,31 +3824,31 @@
       <c r="A48" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8" t="s">
+      <c r="F48" s="9"/>
+      <c r="G48" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8" t="s">
+      <c r="H48" s="9"/>
+      <c r="I48" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J48" s="8" t="s">
+      <c r="J48" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="K48" s="8"/>
-      <c r="L48" s="9" t="s">
+      <c r="K48" s="9"/>
+      <c r="L48" s="10" t="s">
         <v>203</v>
       </c>
       <c r="M48" s="5"/>
@@ -3860,31 +3866,31 @@
       <c r="A49" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8" t="s">
+      <c r="F49" s="9"/>
+      <c r="G49" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8" t="s">
+      <c r="H49" s="9"/>
+      <c r="I49" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="J49" s="8" t="s">
+      <c r="J49" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="K49" s="8"/>
-      <c r="L49" s="9" t="s">
+      <c r="K49" s="9"/>
+      <c r="L49" s="10" t="s">
         <v>203</v>
       </c>
       <c r="M49" s="5"/>
@@ -3912,29 +3918,29 @@
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
-      <c r="L50" s="10" t="s">
+      <c r="L50" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="M50" s="11" t="s">
+      <c r="M50" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="N50" s="11" t="s">
+      <c r="N50" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="O50" s="11" t="s">
+      <c r="O50" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="11" t="s">
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="R50" s="11"/>
-      <c r="S50" s="11"/>
-      <c r="T50" s="11"/>
-      <c r="U50" s="11" t="s">
+      <c r="R50" s="13"/>
+      <c r="S50" s="13"/>
+      <c r="T50" s="13"/>
+      <c r="U50" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="V50" s="11"/>
+      <c r="V50" s="13"/>
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="5" t="s">
@@ -3950,33 +3956,33 @@
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
-      <c r="L51" s="10" t="s">
+      <c r="L51" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="M51" s="11" t="s">
+      <c r="M51" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="N51" s="11" t="s">
+      <c r="N51" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="O51" s="11" t="s">
+      <c r="O51" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="P51" s="11" t="s">
+      <c r="P51" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="Q51" s="11" t="s">
+      <c r="Q51" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="R51" s="11"/>
-      <c r="S51" s="11"/>
-      <c r="T51" s="11" t="s">
+      <c r="R51" s="13"/>
+      <c r="S51" s="13"/>
+      <c r="T51" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="U51" s="11" t="s">
+      <c r="U51" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="V51" s="11" t="s">
+      <c r="V51" s="13" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3994,35 +4000,35 @@
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
-      <c r="L52" s="10" t="s">
+      <c r="L52" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="M52" s="11" t="s">
+      <c r="M52" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="N52" s="11" t="s">
+      <c r="N52" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="O52" s="11" t="s">
+      <c r="O52" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="P52" s="11" t="s">
+      <c r="P52" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="Q52" s="11" t="s">
+      <c r="Q52" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="R52" s="11" t="s">
+      <c r="R52" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="S52" s="11"/>
-      <c r="T52" s="11" t="s">
+      <c r="S52" s="13"/>
+      <c r="T52" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="U52" s="11" t="s">
+      <c r="U52" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="V52" s="11"/>
+      <c r="V52" s="13"/>
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="5" t="s">
@@ -4038,33 +4044,33 @@
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
-      <c r="L53" s="10" t="s">
+      <c r="L53" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="M53" s="11" t="s">
+      <c r="M53" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="N53" s="11" t="s">
+      <c r="N53" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="O53" s="11" t="s">
+      <c r="O53" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="P53" s="11" t="s">
+      <c r="P53" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="11" t="s">
+      <c r="Q53" s="13"/>
+      <c r="R53" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11" t="s">
+      <c r="S53" s="13"/>
+      <c r="T53" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="U53" s="11" t="s">
+      <c r="U53" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="V53" s="11"/>
+      <c r="V53" s="13"/>
     </row>
     <row r="54" spans="1:22">
       <c r="A54" s="5" t="s">
@@ -4080,33 +4086,33 @@
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
-      <c r="L54" s="10" t="s">
+      <c r="L54" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="M54" s="11" t="s">
+      <c r="M54" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="N54" s="11" t="s">
+      <c r="N54" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="O54" s="11" t="s">
+      <c r="O54" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="P54" s="11" t="s">
+      <c r="P54" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="Q54" s="11"/>
-      <c r="R54" s="11" t="s">
+      <c r="Q54" s="13"/>
+      <c r="R54" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11" t="s">
+      <c r="S54" s="13"/>
+      <c r="T54" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="U54" s="11" t="s">
+      <c r="U54" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="V54" s="11"/>
+      <c r="V54" s="13"/>
     </row>
     <row r="55" spans="1:22">
       <c r="A55" s="5" t="s">
@@ -4122,33 +4128,33 @@
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="10" t="s">
+      <c r="L55" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="M55" s="11" t="s">
+      <c r="M55" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="N55" s="11" t="s">
+      <c r="N55" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="O55" s="11" t="s">
+      <c r="O55" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="P55" s="11" t="s">
+      <c r="P55" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="Q55" s="11"/>
-      <c r="R55" s="11" t="s">
+      <c r="Q55" s="13"/>
+      <c r="R55" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11" t="s">
+      <c r="S55" s="13"/>
+      <c r="T55" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="U55" s="11" t="s">
+      <c r="U55" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="V55" s="11"/>
+      <c r="V55" s="13"/>
     </row>
     <row r="56" spans="1:22">
       <c r="A56" s="5" t="s">
@@ -4164,33 +4170,33 @@
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="10" t="s">
+      <c r="L56" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="M56" s="11" t="s">
+      <c r="M56" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="N56" s="11" t="s">
+      <c r="N56" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="O56" s="11" t="s">
+      <c r="O56" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="P56" s="11" t="s">
+      <c r="P56" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="Q56" s="11"/>
-      <c r="R56" s="11" t="s">
+      <c r="Q56" s="13"/>
+      <c r="R56" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="S56" s="11"/>
-      <c r="T56" s="11" t="s">
+      <c r="S56" s="13"/>
+      <c r="T56" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="U56" s="11" t="s">
+      <c r="U56" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="V56" s="11"/>
+      <c r="V56" s="13"/>
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="2" t="s">
@@ -4215,7 +4221,7 @@
         <v>196</v>
       </c>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -4485,7 +4491,7 @@
         <v>196</v>
       </c>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -4633,7 +4639,7 @@
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -4879,21 +4885,21 @@
       <c r="V69" s="5"/>
     </row>
     <row r="70" spans="1:22">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
       <c r="J70" s="6" t="s">
         <v>181</v>
       </c>
@@ -4901,18 +4907,18 @@
       <c r="L70" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="M70" s="5" t="s">
+      <c r="M70" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N70" s="5" t="s">
+      <c r="N70" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O70" s="5"/>
-      <c r="P70" s="5"/>
-      <c r="Q70" s="5"/>
-      <c r="R70" s="5"/>
-      <c r="S70" s="5"/>
-      <c r="T70" s="5"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
       <c r="U70" s="6" t="s">
         <v>210</v>
       </c>
@@ -5149,52 +5155,52 @@
       </c>
     </row>
     <row r="75" spans="1:22">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E75" s="5"/>
+      <c r="E75" s="2"/>
       <c r="F75" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5" t="s">
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="K75" s="5"/>
+      <c r="K75" s="2"/>
       <c r="L75" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="M75" s="5" t="s">
+      <c r="M75" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N75" s="5" t="s">
+      <c r="N75" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O75" s="5" t="s">
+      <c r="O75" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P75" s="5"/>
+      <c r="P75" s="2"/>
       <c r="Q75" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="R75" s="5"/>
-      <c r="S75" s="5"/>
-      <c r="T75" s="5"/>
-      <c r="U75" s="5" t="s">
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="V75" s="5"/>
+      <c r="V75" s="2"/>
     </row>
     <row r="76" spans="1:22">
       <c r="A76" s="5" t="s">
@@ -5431,48 +5437,48 @@
       <c r="V79" s="5"/>
     </row>
     <row r="80" spans="1:22">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5" t="s">
+      <c r="C80" s="2"/>
+      <c r="D80" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E80" s="5"/>
+      <c r="E80" s="2"/>
       <c r="F80" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5" t="s">
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="K80" s="5"/>
+      <c r="K80" s="2"/>
       <c r="L80" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="M80" s="5" t="s">
+      <c r="M80" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N80" s="5"/>
-      <c r="O80" s="5" t="s">
+      <c r="N80" s="2"/>
+      <c r="O80" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P80" s="5"/>
+      <c r="P80" s="2"/>
       <c r="Q80" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="R80" s="5"/>
-      <c r="S80" s="5"/>
-      <c r="T80" s="5"/>
-      <c r="U80" s="5" t="s">
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
+      <c r="U80" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="V80" s="5"/>
+      <c r="V80" s="2"/>
     </row>
     <row r="81" spans="1:22">
       <c r="A81" s="5" t="s">
